--- a/deployment/v3/mosip/kernel/masterdata/xlsx/sync_job_def.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/sync_job_def.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">0 0 11 * * ?</t>
   </si>
   <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
@@ -148,10 +151,10 @@
     <t xml:space="preserve">PVS_J00015</t>
   </si>
   <si>
-    <t xml:space="preserve">Registration Packet Virus Scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registrationPacketVirusScanJob</t>
+    <t xml:space="preserve">Registration Client Virus Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registrationClientVirusScanJob</t>
   </si>
   <si>
     <t xml:space="preserve">PKS_J00016</t>
@@ -161,6 +164,15 @@
   </si>
   <si>
     <t xml:space="preserve">publicKeySyncJob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUJ_J00017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Packet Upload Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registrationPacketUploadJob</t>
   </si>
 </sst>
 </file>
@@ -251,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,6 +282,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -289,14 +309,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -342,8 +367,11 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,19 +379,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,19 +402,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,19 +425,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,19 +448,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,13 +471,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -445,8 +485,11 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,19 +497,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,19 +520,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,19 +543,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,19 +566,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,19 +589,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,25 +612,54 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
